--- a/export/export.xlsx
+++ b/export/export.xlsx
@@ -13,18 +13,18 @@
     <sheet name="NB-Swapped(1e-9)" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="NB-Swapped(1e-5)" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="NB-Swapped(0.1)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="DT-Normal(max_depth)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="DT-Normal(min_sample_leaf)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="DT-Normal(min_sample_split)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="DT-Swapped(max_depth)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="DT-Swapped(min_sample_leaf)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="DT-Swapped(min_sample_split)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="KNN-Normal(k-3)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="KNN-Normal(k-20)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="KNN-Normal(k-60)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="KNN-Swapped(k-3)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="KNN-Swapped(k-20)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="KNN-Swapped(k-60)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="KNN-Normal(k-3)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="KNN-Normal(k-20)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="KNN-Normal(k-60)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="KNN-Swapped(k-3)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="KNN-Swapped(k-20)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="KNN-Swapped(k-60)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="DT-Normal(max_depth)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="DT-Normal(min_sample_leaf)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="DT-Normal(min_sample_split)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DT-Swapped(max_depth)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="DT-Swapped(min_sample_leaf)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="DT-Swapped(min_sample_split)" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>98.29000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="D3" t="n">
-        <v>99.75</v>
+        <v>82.59</v>
       </c>
     </row>
     <row r="4">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="5">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D6" t="n">
-        <v>99.75</v>
+        <v>90.38</v>
       </c>
     </row>
     <row r="7">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D7" t="n">
-        <v>99.75</v>
+        <v>91.91</v>
       </c>
     </row>
     <row r="8">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>92.77</v>
       </c>
     </row>
     <row r="9">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>85.79000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="11">
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="12">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="D12" t="n">
-        <v>99.75</v>
+        <v>90.27</v>
       </c>
     </row>
     <row r="13">
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C13" t="n">
         <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>99.75</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="14">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C14" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D14" t="n">
-        <v>99.51000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="15">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>95.27</v>
       </c>
     </row>
     <row r="16">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D16" t="n">
-        <v>99.75</v>
+        <v>91.37</v>
       </c>
     </row>
     <row r="17">
@@ -1178,13 +1178,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1194,13 +1194,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D18" t="n">
-        <v>99.51000000000001</v>
+        <v>95.69</v>
       </c>
     </row>
     <row r="19">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D19" t="n">
-        <v>99.75</v>
+        <v>89.45</v>
       </c>
     </row>
     <row r="20">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>98.20999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D21" t="n">
-        <v>99.51000000000001</v>
+        <v>93.78</v>
       </c>
     </row>
     <row r="22">
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C23" t="n">
         <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>99.75</v>
+        <v>94.84</v>
       </c>
     </row>
     <row r="24">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="25">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>94.70999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="27">
@@ -1338,13 +1338,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>97.75</v>
       </c>
     </row>
   </sheetData>
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>99.01000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="4">
@@ -1428,13 +1428,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="5">
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>89.62</v>
       </c>
     </row>
     <row r="6">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>94.87</v>
       </c>
     </row>
     <row r="7">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>93.53</v>
       </c>
     </row>
     <row r="8">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C8" t="n">
         <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>93.61</v>
       </c>
     </row>
     <row r="9">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="10">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>94.76000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>96.73</v>
       </c>
     </row>
     <row r="12">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="13">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C13" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="14">
@@ -1588,13 +1588,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C14" t="n">
         <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>94.63</v>
       </c>
     </row>
     <row r="16">
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="17">
@@ -1636,13 +1636,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>96.20999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>90.84</v>
       </c>
     </row>
     <row r="20">
@@ -1684,13 +1684,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="21">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="22">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="23">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C23" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>93.53</v>
       </c>
     </row>
     <row r="24">
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="25">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>97.23999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="3">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>515</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>74.76000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>95.73999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>86.39</v>
       </c>
     </row>
     <row r="7">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>85.68000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>92.19</v>
       </c>
     </row>
     <row r="9">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>81.73</v>
       </c>
     </row>
     <row r="10">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1998,13 +1998,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>93.81</v>
       </c>
     </row>
     <row r="12">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>89.16</v>
       </c>
     </row>
     <row r="13">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C13" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="14">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C14" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>94.63</v>
       </c>
     </row>
     <row r="16">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="18">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>94.23999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>83.02</v>
       </c>
     </row>
     <row r="20">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>95.83</v>
       </c>
     </row>
     <row r="21">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>91.20999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>95.01000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C23" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>92.81</v>
       </c>
     </row>
     <row r="24">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>96.68000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>91.54000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="27">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>96.23</v>
       </c>
     </row>
   </sheetData>
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>98.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C3" t="n">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>82.40000000000001</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="4">
@@ -2344,13 +2344,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -2360,13 +2360,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>85.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C6" t="n">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>90.26000000000001</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="7">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="C7" t="n">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>90.02</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="8">
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>90.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>85.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2440,13 +2440,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>92.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>95.19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="C12" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>90.15000000000001</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="13">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C13" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>99.23</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="14">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C14" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2520,13 +2520,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>97.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C16" t="n">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>89.83</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="17">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>95.63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2568,13 +2568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C18" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>96.72</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2584,13 +2584,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="C19" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>91.62</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="20">
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>98.26000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -2616,13 +2616,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C21" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>95.59</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>99.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C23" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>96.03</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="24">
@@ -2664,13 +2664,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>98.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>96.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>98.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>98.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>99.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C3" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>89.20999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>97.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -2818,13 +2818,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>92.42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>90.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -2850,13 +2850,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>92.48999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2866,13 +2866,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>89.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2882,13 +2882,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>88.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>94.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2914,13 +2914,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>97.48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2930,13 +2930,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="C12" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2946,13 +2946,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C13" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>98.73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C14" t="n">
         <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>97.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>96.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2994,13 +2994,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C16" t="n">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>92.18000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -3010,13 +3010,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>94.78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C18" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>97.48999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C19" t="n">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>90.81999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3058,13 +3058,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>96.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3074,13 +3074,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C21" t="n">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>95.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>98.01000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C23" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>95.11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>97.31999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -3138,13 +3138,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>95.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -3154,13 +3154,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>97.48999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -3170,13 +3170,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>98.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>93.59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3244,13 +3244,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C3" t="n">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>75.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>95.55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3276,13 +3276,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>82.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3292,13 +3292,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>86.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -3308,13 +3308,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>85.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -3324,13 +3324,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>84.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -3340,13 +3340,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>79.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>91.56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>95.48999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="C12" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>84.69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -3404,13 +3404,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C13" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>96.91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -3420,13 +3420,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C14" t="n">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>95.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -3436,13 +3436,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>94.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C16" t="n">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>81.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -3468,13 +3468,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>95.43000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -3484,13 +3484,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="C18" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>91.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="C19" t="n">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>83.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3516,13 +3516,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>95.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3532,13 +3532,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C21" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>94.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>95.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -3564,13 +3564,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C23" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>93.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>95.51000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>90.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>95.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -3628,13 +3628,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>96.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3686,13 +3686,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>98.29000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C3" t="n">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>82.59</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="4">
@@ -3718,13 +3718,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>94.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3734,13 +3734,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3750,13 +3750,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="C6" t="n">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>90.38</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="7">
@@ -3766,13 +3766,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="C7" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>91.91</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="8">
@@ -3782,13 +3782,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>92.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -3798,13 +3798,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>85.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -3814,13 +3814,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>94.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3830,13 +3830,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>96.41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3846,13 +3846,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="C12" t="n">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>90.27</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="13">
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C13" t="n">
         <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>98.77</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="14">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C14" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>95.27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C16" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>91.37</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="17">
@@ -3926,13 +3926,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C18" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>95.69</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="C19" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>89.45</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="20">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>98.20999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3990,13 +3990,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C21" t="n">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>93.78</v>
+        <v>99.51000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4006,13 +4006,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>98.26000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4022,13 +4022,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C23" t="n">
         <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>94.84</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="24">
@@ -4038,13 +4038,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>98.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4054,13 +4054,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>94.70999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4070,13 +4070,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>98.45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4086,13 +4086,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>97.75</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4144,13 +4144,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>99.01000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4160,13 +4160,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C3" t="n">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>89.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4176,13 +4176,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>96.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4192,13 +4192,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>89.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4208,13 +4208,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>94.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>93.53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -4240,13 +4240,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
         <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>93.61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -4256,13 +4256,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>88.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>94.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -4288,13 +4288,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>96.73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>91.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C13" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>98.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -4336,13 +4336,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C14" t="n">
         <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>97.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>94.63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -4368,13 +4368,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C16" t="n">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>90.91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>96.20999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C18" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>96.43000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="C19" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>90.84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4432,13 +4432,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>96.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C21" t="n">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>94.44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>98.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C23" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>93.53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -4496,13 +4496,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>98.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>93.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4528,13 +4528,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>97.23999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4544,13 +4544,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>98.01000000000001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C2" t="n">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>93.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4618,13 +4618,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C3" t="n">
-        <v>515</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>74.76000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4634,13 +4634,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>95.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4650,13 +4650,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C5" t="n">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="D5" t="n">
-        <v>81.68000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4666,13 +4666,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>86.39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -4682,13 +4682,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D7" t="n">
-        <v>85.68000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -4698,13 +4698,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D8" t="n">
-        <v>92.19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -4714,13 +4714,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="C9" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D9" t="n">
-        <v>81.73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C10" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>93.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -4746,13 +4746,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
-        <v>93.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4762,13 +4762,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="C12" t="n">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="D12" t="n">
-        <v>89.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C13" t="n">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>95.63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -4794,13 +4794,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C14" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -4810,13 +4810,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C15" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D15" t="n">
-        <v>94.63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -4826,13 +4826,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C16" t="n">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="D17" t="n">
-        <v>98.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -4858,13 +4858,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C18" t="n">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D18" t="n">
-        <v>94.23999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="C19" t="n">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>83.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4890,13 +4890,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="C20" t="n">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>95.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -4906,13 +4906,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C21" t="n">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D21" t="n">
-        <v>91.20999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C22" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D22" t="n">
-        <v>95.01000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C23" t="n">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D23" t="n">
-        <v>92.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -4954,13 +4954,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C24" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>96.68000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="C25" t="n">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D25" t="n">
-        <v>91.54000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4986,13 +4986,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C26" t="n">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>97.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D27" t="n">
-        <v>96.23</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7350,13 +7350,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="3">
@@ -7366,13 +7366,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="D3" t="n">
-        <v>99.75</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -7382,13 +7382,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>85.87</v>
       </c>
     </row>
     <row r="6">
@@ -7414,13 +7414,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D6" t="n">
-        <v>99.75</v>
+        <v>90.26000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -7430,13 +7430,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D7" t="n">
-        <v>99.75</v>
+        <v>90.02</v>
       </c>
     </row>
     <row r="8">
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>90.16</v>
       </c>
     </row>
     <row r="9">
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>85.93000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -7478,13 +7478,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>92.44</v>
       </c>
     </row>
     <row r="11">
@@ -7494,13 +7494,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>95.19</v>
       </c>
     </row>
     <row r="12">
@@ -7510,13 +7510,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D12" t="n">
-        <v>99.75</v>
+        <v>90.15000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -7526,13 +7526,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C13" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D13" t="n">
-        <v>99.75</v>
+        <v>99.23</v>
       </c>
     </row>
     <row r="14">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C14" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D14" t="n">
-        <v>99.51000000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -7558,13 +7558,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>97.17</v>
       </c>
     </row>
     <row r="16">
@@ -7574,13 +7574,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D16" t="n">
-        <v>99.75</v>
+        <v>89.83</v>
       </c>
     </row>
     <row r="17">
@@ -7590,13 +7590,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="18">
@@ -7606,13 +7606,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D18" t="n">
-        <v>99.51000000000001</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="19">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D19" t="n">
-        <v>99.75</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="20">
@@ -7638,13 +7638,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D21" t="n">
-        <v>99.51000000000001</v>
+        <v>95.59</v>
       </c>
     </row>
     <row r="22">
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>99.23</v>
       </c>
     </row>
     <row r="23">
@@ -7686,13 +7686,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C23" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D23" t="n">
-        <v>99.75</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="24">
@@ -7702,13 +7702,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="25">
@@ -7718,13 +7718,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="26">
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>98.47</v>
       </c>
     </row>
     <row r="27">
@@ -7750,13 +7750,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>98.76000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7808,13 +7808,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="3">
@@ -7824,13 +7824,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>89.20999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -7840,13 +7840,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="5">
@@ -7856,13 +7856,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>92.42</v>
       </c>
     </row>
     <row r="6">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>90.87</v>
       </c>
     </row>
     <row r="7">
@@ -7888,13 +7888,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>92.48999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -7904,13 +7904,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="9">
@@ -7920,13 +7920,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>88.37</v>
       </c>
     </row>
     <row r="10">
@@ -7936,13 +7936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="11">
@@ -7952,13 +7952,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>97.48</v>
       </c>
     </row>
     <row r="12">
@@ -7968,13 +7968,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -7984,13 +7984,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="14">
@@ -8000,13 +8000,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C14" t="n">
         <v>407</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -8016,13 +8016,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="16">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>92.18000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -8048,13 +8048,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="18">
@@ -8064,13 +8064,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>97.48999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -8080,13 +8080,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>90.81999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -8096,13 +8096,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="21">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>95.62</v>
       </c>
     </row>
     <row r="22">
@@ -8128,13 +8128,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -8144,13 +8144,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C23" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>95.11</v>
       </c>
     </row>
     <row r="24">
@@ -8160,13 +8160,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>97.31999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -8176,13 +8176,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>95.76000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -8192,13 +8192,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>97.48999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -8208,13 +8208,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>98.76000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8266,13 +8266,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="3">
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C3" t="n">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="4">
@@ -8298,13 +8298,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C4" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="5">
@@ -8314,13 +8314,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="C5" t="n">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>82.88</v>
       </c>
     </row>
     <row r="6">
@@ -8330,13 +8330,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="C6" t="n">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>86.81</v>
       </c>
     </row>
     <row r="7">
@@ -8346,13 +8346,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C7" t="n">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>85.94</v>
       </c>
     </row>
     <row r="8">
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="C8" t="n">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>84.76000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -8378,13 +8378,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="C9" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -8394,13 +8394,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>91.56</v>
       </c>
     </row>
     <row r="11">
@@ -8410,13 +8410,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="C11" t="n">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>95.48999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -8426,13 +8426,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="C12" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>84.69</v>
       </c>
     </row>
     <row r="13">
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C13" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>96.91</v>
       </c>
     </row>
     <row r="14">
@@ -8458,13 +8458,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C14" t="n">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="15">
@@ -8474,13 +8474,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>94.76000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -8490,13 +8490,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>81.17</v>
       </c>
     </row>
     <row r="17">
@@ -8506,13 +8506,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="C17" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>95.43000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -8522,13 +8522,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>91.16</v>
       </c>
     </row>
     <row r="19">
@@ -8538,13 +8538,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="C19" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>83.37</v>
       </c>
     </row>
     <row r="20">
@@ -8554,13 +8554,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C20" t="n">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>95.79000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -8570,13 +8570,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C21" t="n">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>94.47</v>
       </c>
     </row>
     <row r="22">
@@ -8586,13 +8586,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="C22" t="n">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>95.93000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -8602,13 +8602,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C23" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -8618,13 +8618,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C24" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>95.51000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -8634,13 +8634,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C25" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>90.12</v>
       </c>
     </row>
     <row r="26">
@@ -8650,13 +8650,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="C26" t="n">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="27">
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C27" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>96.73999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/export/export.xlsx
+++ b/export/export.xlsx
@@ -25,6 +25,12 @@
     <sheet name="DT-Swapped(max_depth)" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="DT-Swapped(min_sample_leaf)" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="DT-Swapped(min_sample_split)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SVM-Normal(linear)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SVM-Normal(rbf)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SVM-Normal(rbf_hyper)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="SVM-Swapped(linear)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="SVM-Swapped(rbf)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SVM-Swapped(rbf_hyper)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5016,6 +5022,464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>381</v>
+      </c>
+      <c r="C2" t="n">
+        <v>421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>362</v>
+      </c>
+      <c r="C3" t="n">
+        <v>460</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>346</v>
+      </c>
+      <c r="C4" t="n">
+        <v>404</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>353</v>
+      </c>
+      <c r="C5" t="n">
+        <v>433</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>341</v>
+      </c>
+      <c r="C6" t="n">
+        <v>429</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.48999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>360</v>
+      </c>
+      <c r="C7" t="n">
+        <v>441</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>434</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>274</v>
+      </c>
+      <c r="C9" t="n">
+        <v>391</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>390</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.51000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>359</v>
+      </c>
+      <c r="C11" t="n">
+        <v>418</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>336</v>
+      </c>
+      <c r="C12" t="n">
+        <v>434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>363</v>
+      </c>
+      <c r="C13" t="n">
+        <v>407</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>401</v>
+      </c>
+      <c r="D14" t="n">
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>371</v>
+      </c>
+      <c r="C15" t="n">
+        <v>396</v>
+      </c>
+      <c r="D15" t="n">
+        <v>93.69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>310</v>
+      </c>
+      <c r="C16" t="n">
+        <v>365</v>
+      </c>
+      <c r="D16" t="n">
+        <v>84.93000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>345</v>
+      </c>
+      <c r="C17" t="n">
+        <v>366</v>
+      </c>
+      <c r="D17" t="n">
+        <v>94.26000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>330</v>
+      </c>
+      <c r="C18" t="n">
+        <v>394</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83.76000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>324</v>
+      </c>
+      <c r="C19" t="n">
+        <v>408</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79.41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>272</v>
+      </c>
+      <c r="C20" t="n">
+        <v>397</v>
+      </c>
+      <c r="D20" t="n">
+        <v>68.51000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>353</v>
+      </c>
+      <c r="C21" t="n">
+        <v>391</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90.28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>384</v>
+      </c>
+      <c r="C22" t="n">
+        <v>414</v>
+      </c>
+      <c r="D22" t="n">
+        <v>92.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>368</v>
+      </c>
+      <c r="C23" t="n">
+        <v>403</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91.31999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>389</v>
+      </c>
+      <c r="C24" t="n">
+        <v>432</v>
+      </c>
+      <c r="D24" t="n">
+        <v>90.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>349</v>
+      </c>
+      <c r="C25" t="n">
+        <v>381</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>356</v>
+      </c>
+      <c r="C26" t="n">
+        <v>384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>92.70999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>332</v>
+      </c>
+      <c r="C27" t="n">
+        <v>388</v>
+      </c>
+      <c r="D27" t="n">
+        <v>85.56999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5467,6 +5931,2296 @@
       </c>
       <c r="D27" t="n">
         <v>62.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>398</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>387</v>
+      </c>
+      <c r="C3" t="n">
+        <v>471</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>365</v>
+      </c>
+      <c r="C4" t="n">
+        <v>372</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>377</v>
+      </c>
+      <c r="C5" t="n">
+        <v>425</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.70999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>372</v>
+      </c>
+      <c r="C6" t="n">
+        <v>409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>389</v>
+      </c>
+      <c r="C7" t="n">
+        <v>423</v>
+      </c>
+      <c r="D7" t="n">
+        <v>91.95999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>380</v>
+      </c>
+      <c r="C8" t="n">
+        <v>446</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>330</v>
+      </c>
+      <c r="C9" t="n">
+        <v>370</v>
+      </c>
+      <c r="D9" t="n">
+        <v>89.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>372</v>
+      </c>
+      <c r="C10" t="n">
+        <v>380</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>402</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>389</v>
+      </c>
+      <c r="C12" t="n">
+        <v>415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93.73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>374</v>
+      </c>
+      <c r="C13" t="n">
+        <v>378</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>387</v>
+      </c>
+      <c r="C14" t="n">
+        <v>408</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94.84999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>395</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96.70999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>383</v>
+      </c>
+      <c r="C16" t="n">
+        <v>435</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>364</v>
+      </c>
+      <c r="C17" t="n">
+        <v>374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>97.33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>386</v>
+      </c>
+      <c r="C18" t="n">
+        <v>405</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>374</v>
+      </c>
+      <c r="C19" t="n">
+        <v>436</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>388</v>
+      </c>
+      <c r="C20" t="n">
+        <v>420</v>
+      </c>
+      <c r="D20" t="n">
+        <v>92.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>378</v>
+      </c>
+      <c r="C21" t="n">
+        <v>390</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>396</v>
+      </c>
+      <c r="C22" t="n">
+        <v>407</v>
+      </c>
+      <c r="D22" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>380</v>
+      </c>
+      <c r="D23" t="n">
+        <v>98.68000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>389</v>
+      </c>
+      <c r="C24" t="n">
+        <v>410</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94.88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>389</v>
+      </c>
+      <c r="C25" t="n">
+        <v>408</v>
+      </c>
+      <c r="D25" t="n">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>394</v>
+      </c>
+      <c r="C26" t="n">
+        <v>413</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>392</v>
+      </c>
+      <c r="C27" t="n">
+        <v>404</v>
+      </c>
+      <c r="D27" t="n">
+        <v>97.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>390</v>
+      </c>
+      <c r="C3" t="n">
+        <v>434</v>
+      </c>
+      <c r="D3" t="n">
+        <v>89.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>412</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>427</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>387</v>
+      </c>
+      <c r="C6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>387</v>
+      </c>
+      <c r="C7" t="n">
+        <v>421</v>
+      </c>
+      <c r="D7" t="n">
+        <v>91.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>418</v>
+      </c>
+      <c r="D8" t="n">
+        <v>91.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>360</v>
+      </c>
+      <c r="C9" t="n">
+        <v>408</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.23999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>390</v>
+      </c>
+      <c r="C10" t="n">
+        <v>414</v>
+      </c>
+      <c r="D10" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>407</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>410</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>388</v>
+      </c>
+      <c r="C13" t="n">
+        <v>403</v>
+      </c>
+      <c r="D13" t="n">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>394</v>
+      </c>
+      <c r="C14" t="n">
+        <v>405</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>391</v>
+      </c>
+      <c r="C15" t="n">
+        <v>409</v>
+      </c>
+      <c r="D15" t="n">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>380</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>378</v>
+      </c>
+      <c r="C17" t="n">
+        <v>393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96.18000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>386</v>
+      </c>
+      <c r="C18" t="n">
+        <v>404</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95.54000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>375</v>
+      </c>
+      <c r="C19" t="n">
+        <v>401</v>
+      </c>
+      <c r="D19" t="n">
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>400</v>
+      </c>
+      <c r="D20" t="n">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>388</v>
+      </c>
+      <c r="C21" t="n">
+        <v>404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.04000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>394</v>
+      </c>
+      <c r="C22" t="n">
+        <v>397</v>
+      </c>
+      <c r="D22" t="n">
+        <v>99.23999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>381</v>
+      </c>
+      <c r="C23" t="n">
+        <v>391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>97.44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>398</v>
+      </c>
+      <c r="C24" t="n">
+        <v>407</v>
+      </c>
+      <c r="D24" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>384</v>
+      </c>
+      <c r="C25" t="n">
+        <v>394</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97.45999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>392</v>
+      </c>
+      <c r="C26" t="n">
+        <v>403</v>
+      </c>
+      <c r="D26" t="n">
+        <v>97.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>393</v>
+      </c>
+      <c r="C27" t="n">
+        <v>396</v>
+      </c>
+      <c r="D27" t="n">
+        <v>99.23999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>441</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87.76000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>360</v>
+      </c>
+      <c r="C3" t="n">
+        <v>448</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>361</v>
+      </c>
+      <c r="C4" t="n">
+        <v>424</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>372</v>
+      </c>
+      <c r="C5" t="n">
+        <v>490</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>338</v>
+      </c>
+      <c r="C6" t="n">
+        <v>408</v>
+      </c>
+      <c r="D6" t="n">
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>355</v>
+      </c>
+      <c r="C7" t="n">
+        <v>433</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81.98999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>299</v>
+      </c>
+      <c r="C8" t="n">
+        <v>414</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>411</v>
+      </c>
+      <c r="D9" t="n">
+        <v>69.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>360</v>
+      </c>
+      <c r="C10" t="n">
+        <v>387</v>
+      </c>
+      <c r="D10" t="n">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>357</v>
+      </c>
+      <c r="C11" t="n">
+        <v>394</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>324</v>
+      </c>
+      <c r="C12" t="n">
+        <v>406</v>
+      </c>
+      <c r="D12" t="n">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>351</v>
+      </c>
+      <c r="C13" t="n">
+        <v>384</v>
+      </c>
+      <c r="D13" t="n">
+        <v>91.41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>379</v>
+      </c>
+      <c r="C14" t="n">
+        <v>431</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>394</v>
+      </c>
+      <c r="D15" t="n">
+        <v>93.15000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>307</v>
+      </c>
+      <c r="C16" t="n">
+        <v>353</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>345</v>
+      </c>
+      <c r="C17" t="n">
+        <v>372</v>
+      </c>
+      <c r="D17" t="n">
+        <v>92.73999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>309</v>
+      </c>
+      <c r="C18" t="n">
+        <v>359</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86.06999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>325</v>
+      </c>
+      <c r="C19" t="n">
+        <v>434</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>311</v>
+      </c>
+      <c r="C20" t="n">
+        <v>435</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71.48999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>355</v>
+      </c>
+      <c r="C21" t="n">
+        <v>395</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>365</v>
+      </c>
+      <c r="C22" t="n">
+        <v>391</v>
+      </c>
+      <c r="D22" t="n">
+        <v>93.34999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>373</v>
+      </c>
+      <c r="C23" t="n">
+        <v>403</v>
+      </c>
+      <c r="D23" t="n">
+        <v>92.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>372</v>
+      </c>
+      <c r="C24" t="n">
+        <v>401</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92.77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>356</v>
+      </c>
+      <c r="C25" t="n">
+        <v>397</v>
+      </c>
+      <c r="D25" t="n">
+        <v>89.67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>369</v>
+      </c>
+      <c r="C26" t="n">
+        <v>401</v>
+      </c>
+      <c r="D26" t="n">
+        <v>92.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>330</v>
+      </c>
+      <c r="C27" t="n">
+        <v>376</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C2" t="n">
+        <v>405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>382</v>
+      </c>
+      <c r="C4" t="n">
+        <v>404</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>435</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>377</v>
+      </c>
+      <c r="C6" t="n">
+        <v>422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>383</v>
+      </c>
+      <c r="C7" t="n">
+        <v>416</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92.06999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>376</v>
+      </c>
+      <c r="C8" t="n">
+        <v>426</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88.26000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>351</v>
+      </c>
+      <c r="C9" t="n">
+        <v>410</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>376</v>
+      </c>
+      <c r="C10" t="n">
+        <v>385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>384</v>
+      </c>
+      <c r="C11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>356</v>
+      </c>
+      <c r="C12" t="n">
+        <v>386</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92.23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>379</v>
+      </c>
+      <c r="C13" t="n">
+        <v>380</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99.73999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>390</v>
+      </c>
+      <c r="C14" t="n">
+        <v>415</v>
+      </c>
+      <c r="D14" t="n">
+        <v>93.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>379</v>
+      </c>
+      <c r="C15" t="n">
+        <v>395</v>
+      </c>
+      <c r="D15" t="n">
+        <v>95.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>371</v>
+      </c>
+      <c r="C16" t="n">
+        <v>424</v>
+      </c>
+      <c r="D16" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>366</v>
+      </c>
+      <c r="C17" t="n">
+        <v>371</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98.65000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>394</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95.18000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>368</v>
+      </c>
+      <c r="C19" t="n">
+        <v>437</v>
+      </c>
+      <c r="D19" t="n">
+        <v>84.20999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>392</v>
+      </c>
+      <c r="C20" t="n">
+        <v>417</v>
+      </c>
+      <c r="D20" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>387</v>
+      </c>
+      <c r="C21" t="n">
+        <v>400</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>388</v>
+      </c>
+      <c r="C22" t="n">
+        <v>400</v>
+      </c>
+      <c r="D22" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>386</v>
+      </c>
+      <c r="C23" t="n">
+        <v>396</v>
+      </c>
+      <c r="D23" t="n">
+        <v>97.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>409</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>378</v>
+      </c>
+      <c r="C25" t="n">
+        <v>402</v>
+      </c>
+      <c r="D25" t="n">
+        <v>94.03</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>397</v>
+      </c>
+      <c r="C26" t="n">
+        <v>405</v>
+      </c>
+      <c r="D26" t="n">
+        <v>98.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>393</v>
+      </c>
+      <c r="C27" t="n">
+        <v>403</v>
+      </c>
+      <c r="D27" t="n">
+        <v>97.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recognition rate (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>408</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>390</v>
+      </c>
+      <c r="C3" t="n">
+        <v>434</v>
+      </c>
+      <c r="D3" t="n">
+        <v>89.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>412</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>427</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>387</v>
+      </c>
+      <c r="C6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>387</v>
+      </c>
+      <c r="C7" t="n">
+        <v>421</v>
+      </c>
+      <c r="D7" t="n">
+        <v>91.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>418</v>
+      </c>
+      <c r="D8" t="n">
+        <v>91.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>360</v>
+      </c>
+      <c r="C9" t="n">
+        <v>408</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.23999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>390</v>
+      </c>
+      <c r="C10" t="n">
+        <v>414</v>
+      </c>
+      <c r="D10" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>407</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>410</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>388</v>
+      </c>
+      <c r="C13" t="n">
+        <v>403</v>
+      </c>
+      <c r="D13" t="n">
+        <v>96.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>394</v>
+      </c>
+      <c r="C14" t="n">
+        <v>405</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>391</v>
+      </c>
+      <c r="C15" t="n">
+        <v>409</v>
+      </c>
+      <c r="D15" t="n">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>380</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>378</v>
+      </c>
+      <c r="C17" t="n">
+        <v>393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96.18000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>386</v>
+      </c>
+      <c r="C18" t="n">
+        <v>404</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95.54000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>375</v>
+      </c>
+      <c r="C19" t="n">
+        <v>401</v>
+      </c>
+      <c r="D19" t="n">
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>400</v>
+      </c>
+      <c r="D20" t="n">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>388</v>
+      </c>
+      <c r="C21" t="n">
+        <v>404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.04000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>394</v>
+      </c>
+      <c r="C22" t="n">
+        <v>397</v>
+      </c>
+      <c r="D22" t="n">
+        <v>99.23999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>381</v>
+      </c>
+      <c r="C23" t="n">
+        <v>391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>97.44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>398</v>
+      </c>
+      <c r="C24" t="n">
+        <v>407</v>
+      </c>
+      <c r="D24" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>384</v>
+      </c>
+      <c r="C25" t="n">
+        <v>394</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97.45999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>392</v>
+      </c>
+      <c r="C26" t="n">
+        <v>403</v>
+      </c>
+      <c r="D26" t="n">
+        <v>97.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>393</v>
+      </c>
+      <c r="C27" t="n">
+        <v>396</v>
+      </c>
+      <c r="D27" t="n">
+        <v>99.23999999999999</v>
       </c>
     </row>
   </sheetData>
